--- a/testdata/getData.xlsx
+++ b/testdata/getData.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -542,17 +542,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test_xwx</t>
+          <t>Test_edz</t>
         </is>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>tzrrdzpj@gmail.com</t>
+          <t>pi4wvp1u@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9577431237</t>
+          <t>9520204810</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>Test@107</t>
+          <t>Test@007</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -893,12 +893,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Test_kbt</t>
+          <t>Test_mrd</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>ye2lnh86@gmail.com</t>
+          <t>6ehfjquz@gmail.com</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>9590290497</t>
+          <t>9590751280</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Test_jkc</t>
+          <t>Test_vfo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium59c2b0gm@gmail.com</t>
+          <t>premiumo8dubs39@gmail.com</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9528454833</t>
+          <t>9529119903</t>
         </is>
       </c>
       <c r="H30" s="10" t="inlineStr">
@@ -1001,12 +1001,27 @@
       </c>
       <c r="I30" s="10" t="inlineStr">
         <is>
-          <t>3HJ6EQ</t>
+          <t>IPBMVQ</t>
         </is>
       </c>
     </row>
     <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>699/month</t>
+        </is>
+      </c>
       <c r="C31" s="11" t="n"/>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>tndyr1q8@gmail.com</t>
+        </is>
+      </c>
+      <c r="H31" s="10" t="inlineStr">
+        <is>
+          <t>Test@1234</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1016,6 +1031,8 @@
     <hyperlink ref="B21" r:id="rId4"/>
     <hyperlink ref="C25" r:id="rId5"/>
     <hyperlink ref="H30" r:id="rId6"/>
+    <hyperlink ref="F31" r:id="rId7"/>
+    <hyperlink ref="H31" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
